--- a/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
+++ b/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bruker</t>
+          <t>Agilent Technologies</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -621,28 +621,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Millipore</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MALDI</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DESI</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Waters</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MALDI</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>LCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DESI</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
       <c r="E8" t="inlineStr">
         <is>
           <t>SIMS-C60</t>
@@ -4338,7 +4348,7 @@
       <formula1>_validation_data!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation sqref="D3 D18 D23 D33 D38 D43 D48 D53 D68 D78 D93 D98 D108 D128 D133 D138 D158 D163" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$6</formula1>
+      <formula1>_validation_data!$C$1:$C$8</formula1>
     </dataValidation>
     <dataValidation sqref="D4 D8 D13 D19 D24 D28 D34 D39 D44 D49 D54 D58 D63 D69 D73 D79 D83 D88 D94 D99 D103 D109 D113 D118 D123 D129 D134 D139 D143 D148 D153 D159 D164" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$1</formula1>

--- a/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
+++ b/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$217</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$52</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,45 +431,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>SCN400</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>cIMS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>In-House</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>celsius</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Negative ion mode</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>LDI</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>MS1</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>microPOTS</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Profiling</t>
         </is>
@@ -478,40 +488,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>STELLARIS 5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>PRM</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>TWIMS</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>IonOpticks</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Positive ion mode</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>SIMS-H20</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>MS3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>nanoSPLITS</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
@@ -520,35 +540,45 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>BZ-X710</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>DIA</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>DTIMS</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Evosep</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Negative and positive ion mode</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>HESI</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>MS2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>LESA</t>
         </is>
@@ -557,126 +587,628 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Pannoramic MIDI II Digital Scanner</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>SRM</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>SLIM</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Thermo Fisher Scientific</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>LA</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>microLESA</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>TIMS</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Agilent Technologies</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>nanoDESI</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>nanoPOTS</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MoticEasyScan One</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>FAIMS</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Millipore</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>MALDI</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EVOS M7000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Bruker</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>DESI</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NovaSeq X</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Waters</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>SIMS-C60</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="E9" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NanoZoomer 2.0-HT</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>ESI</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="E10" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>timsTOF Ultra 2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>MALDI-2</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="E11" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lightsheet 7</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>nESI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Phenocycler-Fusion 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DNBSEQ-T7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>timsTOF Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AVITI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>timsTOF Pro 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q Exactive UHMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q Exactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>timsTOF SCP</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Zyla 4.2 sCMOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Helios</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>uScopeHXII-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Custom: Multiphoton</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>QTRAP 5500</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>timsTOF Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BZ-X800</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CyTOF 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>G4X Spatial Sequencer</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NextSeq 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NanoZoomer S360</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hyperion Imaging System</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NovaSeq X Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CyTOF XT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NanoZoomer-SQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NextSeq 550</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Axio Zoom.V16</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Digital Spatial Profiler</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>timsTOF FleX</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>timsTOF FleX MALDI-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NanoZoomer S210</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BZ-X810</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Axio Observer 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cytek Northern Lights</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IN Cell Analyzer 2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>timsTOF HT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PhenoImager Fusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DM6 B</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Phenocycler-Fusion 2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Aperio CS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Lumos Tribrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Resolve Biosciences Molecular Cartography</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MALDI timsTOF Flex Prototype</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TissueScope LE Slide Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>VS200 Slide Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Axio Observer 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Axio Observer 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HiSeq 2500</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Orbitrap Eclipse Tribrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Cell DIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MERSCOPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NextSeq 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NovaSeq 6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>In-House</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HiSeq 4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>solariX</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Panoramic 150 Digital Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Aperio AT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MIBIscope</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Biomark HD</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NanoZoomer S60</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CosMx Spatial Molecular Imager</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MERSCOPE Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Axio Scan.Z1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Juno System</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Q Exactive HF</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Xenium Analyzer</t>
         </is>
       </c>
     </row>
@@ -691,7 +1223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,12 +1266,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -757,12 +1289,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -780,12 +1312,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -803,12 +1335,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -826,12 +1358,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -844,42 +1376,46 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM234.FFHQ.425</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM234.FFHQ.425</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM234.FFHQ.425</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM234.FFHQ.425</t>
         </is>
       </c>
     </row>
@@ -891,14 +1427,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
@@ -914,10 +1446,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
@@ -933,10 +1469,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
@@ -947,65 +1487,61 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM235.KWRX.762</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM235.KWRX.762</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM235.KWRX.762</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1553,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1036,10 +1572,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -1050,92 +1590,84 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1679,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1165,7 +1697,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1181,14 +1713,14 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1204,14 +1736,14 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1227,393 +1759,393 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1629,14 +2161,14 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1652,14 +2184,14 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1675,309 +2207,313 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1993,511 +2529,531 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2509,14 +3065,14 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2532,557 +3088,565 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3098,37 +3662,37 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3144,239 +3708,247 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3392,439 +3964,439 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>HBM848.ZBMT.962</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HBM848.ZBMT.962</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3840,75 +4412,83 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HBM848.ZBMT.962</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HBM848.ZBMT.962</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HBM848.ZBMT.962</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HBM863.ZHZF.274</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3920,14 +4500,14 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HBM863.ZHZF.274</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3943,430 +4523,1561 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HBM863.ZHZF.274</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HBM863.ZHZF.274</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HBM863.ZHZF.274</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HBM935.LPGG.796</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HBM935.LPGG.796</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HBM935.LPGG.796</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HBM935.LPGG.796</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HBM935.LPGG.796</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HBM938.FRHG.524</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HBM938.FRHG.524</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HBM938.FRHG.524</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HBM938.FRHG.524</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HBM938.FRHG.524</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HBM952.RNFS.983</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HBM952.RNFS.983</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HBM952.RNFS.983</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HBM952.RNFS.983</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HBM952.RNFS.983</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>HBM787.FMCW.347</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>HBM787.FMCW.347</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>HBM787.FMCW.347</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>HBM787.FMCW.347</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>HBM787.FMCW.347</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>HBM793.KFWG.238</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>HBM793.KFWG.238</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>HBM793.KFWG.238</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>HBM793.KFWG.238</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>HBM793.KFWG.238</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>HBM793.KFWG.238</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>HBM793.KFWG.238</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>HBM829.WPMT.279</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>HBM829.WPMT.279</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>HBM829.WPMT.279</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>HBM829.WPMT.279</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>HBM829.WPMT.279</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>HBM829.WPMT.279</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>HBM829.WPMT.279</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>HBM848.ZBMT.962</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>HBM848.ZBMT.962</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>HBM848.ZBMT.962</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>HBM848.ZBMT.962</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>HBM848.ZBMT.962</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>HBM848.ZBMT.962</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>HBM863.ZHZF.274</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>HBM863.ZHZF.274</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>HBM863.ZHZF.274</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>HBM863.ZHZF.274</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>HBM863.ZHZF.274</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>HBM863.ZHZF.274</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>HBM935.LPGG.796</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>HBM935.LPGG.796</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>HBM935.LPGG.796</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>HBM935.LPGG.796</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>HBM935.LPGG.796</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>HBM935.LPGG.796</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>HBM938.FRHG.524</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>HBM938.FRHG.524</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>HBM938.FRHG.524</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>HBM938.FRHG.524</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>HBM938.FRHG.524</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>HBM938.FRHG.524</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>HBM938.FRHG.524</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>HBM952.RNFS.983</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>HBM952.RNFS.983</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>HBM952.RNFS.983</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>HBM952.RNFS.983</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>HBM952.RNFS.983</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>HBM952.RNFS.983</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>HBM952.RNFS.983</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E166"/>
-  <dataValidations count="8">
-    <dataValidation sqref="D2 D17 D22 D32 D37 D42 D47 D52 D67 D77 D92 D97 D107 D127 D132 D137 D157 D162" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$4</formula1>
+  <autoFilter ref="A1:E217"/>
+  <dataValidations count="10">
+    <dataValidation sqref="D2 D21 D28 D41 D48 D55 D62 D69 D88 D101 D120 D127 D140 D165 D172 D179 D204 D211" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$77</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D18 D23 D33 D38 D43 D48 D53 D68 D78 D93 D98 D108 D128 D133 D138 D158 D163" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$8</formula1>
+    <dataValidation sqref="D3 D22 D29 D42 D49 D56 D63 D70 D89 D102 D121 D128 D141 D166 D173 D180 D205 D212" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$4</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D8 D13 D19 D24 D28 D34 D39 D44 D49 D54 D58 D63 D69 D73 D79 D83 D88 D94 D99 D103 D109 D113 D118 D123 D129 D134 D139 D143 D148 D153 D159 D164" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$1</formula1>
+    <dataValidation sqref="D4 D23 D30 D43 D50 D57 D64 D71 D90 D103 D122 D129 D142 D167 D174 D181 D206 D213" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$8</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D20 D25 D35 D40 D45 D50 D55 D70 D80 D95 D100 D110 D130 D135 D140 D160 D165" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$11</formula1>
+    <dataValidation sqref="D5 D10 D16 D24 D31 D36 D44 D51 D58 D65 D72 D77 D83 D91 D96 D104 D109 D115 D123 D130 D135 D143 D148 D154 D160 D168 D175 D182 D187 D193 D199 D207 D214" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$1</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D9 D14 D21 D26 D29 D36 D41 D46 D51 D56 D59 D64 D71 D74 D81 D84 D89 D96 D101 D104 D111 D114 D119 D124 D131 D136 D141 D144 D149 D154 D161 D166" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D6 D11 D17 D25 D32 D37 D45 D52 D59 D66 D73 D78 D84 D92 D97 D105 D110 D116 D124 D131 D136 D144 D149 D155 D161 D169 D176 D183 D188 D194 D200 D208 D215" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$F$1:$F$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D7 D12 D27 D57 D62 D72 D82 D87 D102 D112 D117 D122 D142 D147 D152" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$6</formula1>
+    <dataValidation sqref="D7 D26 D33 D46 D53 D60 D67 D74 D93 D106 D125 D132 D145 D170 D177 D184 D209 D216" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$G$1:$G$11</formula1>
     </dataValidation>
-    <dataValidation sqref="D10 D15 D30 D60 D65 D75 D85 D90 D105 D115 D120 D125 D145 D150 D155" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$H$1:$H$6</formula1>
+    <dataValidation sqref="D8 D12 D18 D27 D34 D38 D47 D54 D61 D68 D75 D79 D85 D94 D98 D107 D111 D117 D126 D133 D137 D146 D150 D156 D162 D171 D178 D185 D189 D195 D201 D210 D217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$H$1:$H$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D11 D16 D31 D61 D66 D76 D86 D91 D106 D116 D121 D126 D146 D151 D156" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$I$1:$I$2</formula1>
+    <dataValidation sqref="D9 D15 D35 D76 D82 D95 D108 D114 D134 D147 D153 D159 D186 D192 D198" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$C$1:$C$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="D13 D19 D39 D80 D86 D99 D112 D118 D138 D151 D157 D163 D190 D196 D202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$J$1:$J$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="D14 D20 D40 D81 D87 D100 D113 D119 D139 D152 D158 D164 D191 D197 D203" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$K$1:$K$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5925,7 +7636,7 @@
   <autoFilter ref="A1:D85"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C5 C7 C10 C13 C15 C18 C21 C24 C27 C30 C32 C34 C37 C39 C42 C44 C46 C49 C52 C54 C57 C59 C61 C63 C66 C69 C72 C74 C76 C78 C81 C84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$5</formula1>
+      <formula1>_validation_data!$I$1:$I$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
+++ b/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$181</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$52</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,35 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>In-House</t>
+          <t>celsius</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>celsius</t>
+          <t>Negative ion mode</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Negative ion mode</t>
+          <t>LDI</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>LDI</t>
+          <t>MS1</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>MS1</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>microPOTS</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
-        <is>
-          <t>microPOTS</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
         <is>
           <t>Profiling</t>
         </is>
@@ -501,37 +496,32 @@
           <t>TWIMS</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>IonOpticks</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Positive ion mode</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Positive ion mode</t>
+          <t>SIMS-H20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SIMS-H20</t>
+          <t>MS3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MS3</t>
+          <t>month</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>nanoSPLITS</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>nanoSPLITS</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
@@ -553,32 +543,27 @@
           <t>DTIMS</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Evosep</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Negative and positive ion mode</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Negative and positive ion mode</t>
+          <t>HESI</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>HESI</t>
+          <t>MS2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MS2</t>
+          <t>year</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>LESA</t>
         </is>
@@ -600,22 +585,17 @@
           <t>SLIM</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>LA</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>microLESA</t>
         </is>
@@ -632,22 +612,17 @@
           <t>TIMS</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Agilent Technologies</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>nanoDESI</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>minute</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>minute</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t>nanoPOTS</t>
         </is>
@@ -664,17 +639,12 @@
           <t>FAIMS</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Millipore</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>MALDI</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
@@ -686,12 +656,7 @@
           <t>EVOS M7000</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Bruker</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>DESI</t>
         </is>
@@ -703,12 +668,7 @@
           <t>NovaSeq X</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Waters</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>SIMS-C60</t>
         </is>
@@ -720,7 +680,7 @@
           <t>NanoZoomer 2.0-HT</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>ESI</t>
         </is>
@@ -732,7 +692,7 @@
           <t>timsTOF Ultra 2</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>MALDI-2</t>
         </is>
@@ -744,7 +704,7 @@
           <t>Lightsheet 7</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>nESI</t>
         </is>
@@ -1223,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1312,12 +1272,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1335,12 +1295,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -1358,12 +1318,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1376,46 +1336,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM234.FFHQ.425</t>
+          <t>HBM235.KWRX.762</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.FFHQ.425</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM234.FFHQ.425</t>
+          <t>HBM235.KWRX.762</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.FFHQ.425</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
         </is>
       </c>
     </row>
@@ -1427,10 +1383,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
@@ -1446,12 +1406,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1469,14 +1429,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
@@ -1492,14 +1448,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
@@ -1510,38 +1462,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
@@ -1553,10 +1509,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
@@ -1572,12 +1532,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1595,14 +1555,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
@@ -1618,14 +1574,10 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
@@ -1636,38 +1588,46 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
@@ -1679,12 +1639,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1702,12 +1662,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1725,12 +1685,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1743,92 +1703,92 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
@@ -1840,12 +1800,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1858,593 +1818,593 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2460,14 +2420,14 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2483,2551 +2443,2515 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5043,14 +4967,14 @@
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5066,1018 +4990,223 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E217"/>
-  <dataValidations count="10">
-    <dataValidation sqref="D2 D21 D28 D41 D48 D55 D62 D69 D88 D101 D120 D127 D140 D165 D172 D179 D204 D211" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E181"/>
+  <dataValidations count="9">
+    <dataValidation sqref="D2 D19 D24 D35 D40 D45 D50 D55 D72 D83 D100 D105 D116 D139 D144 D149 D172 D177" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$77</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D22 D29 D42 D49 D56 D63 D70 D89 D102 D121 D128 D141 D166 D173 D180 D205 D212" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D20 D25 D36 D41 D46 D51 D56 D73 D84 D101 D106 D117 D140 D145 D150 D173 D178" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$4</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D23 D30 D43 D50 D57 D64 D71 D90 D103 D122 D129 D142 D167 D174 D181 D206 D213" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$8</formula1>
+    <dataValidation sqref="D4 D8 D14 D21 D26 D30 D37 D42 D47 D52 D57 D61 D67 D74 D78 D85 D89 D95 D102 D107 D111 D118 D122 D128 D134 D141 D146 D151 D155 D161 D167 D174 D179" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$1</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D10 D16 D24 D31 D36 D44 D51 D58 D65 D72 D77 D83 D91 D96 D104 D109 D115 D123 D130 D135 D143 D148 D154 D160 D168 D175 D182 D187 D193 D199 D207 D214" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$1</formula1>
+    <dataValidation sqref="D5 D9 D15 D22 D27 D31 D38 D43 D48 D53 D58 D62 D68 D75 D79 D86 D90 D96 D103 D108 D112 D119 D123 D129 D135 D142 D147 D152 D156 D162 D168 D175 D180" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D11 D17 D25 D32 D37 D45 D52 D59 D66 D73 D78 D84 D92 D97 D105 D110 D116 D124 D131 D136 D144 D149 D155 D161 D169 D176 D183 D188 D194 D200 D208 D215" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$3</formula1>
+    <dataValidation sqref="D6 D23 D28 D39 D44 D49 D54 D59 D76 D87 D104 D109 D120 D143 D148 D153 D176 D181" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$F$1:$F$11</formula1>
     </dataValidation>
-    <dataValidation sqref="D7 D26 D33 D46 D53 D60 D67 D74 D93 D106 D125 D132 D145 D170 D177 D184 D209 D216" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$11</formula1>
-    </dataValidation>
-    <dataValidation sqref="D8 D12 D18 D27 D34 D38 D47 D54 D61 D68 D75 D79 D85 D94 D98 D107 D111 D117 D126 D133 D137 D146 D150 D156 D162 D171 D178 D185 D189 D195 D201 D210 D217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$H$1:$H$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="D9 D15 D35 D76 D82 D95 D108 D114 D134 D147 D153 D159 D186 D192 D198" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D7 D13 D29 D60 D66 D77 D88 D94 D110 D121 D127 D133 D154 D160 D166" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D13 D19 D39 D80 D86 D99 D112 D118 D138 D151 D157 D163 D190 D196 D202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$J$1:$J$6</formula1>
+    <dataValidation sqref="D10 D16 D32 D63 D69 D80 D91 D97 D113 D124 D130 D136 D157 D163 D169" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$G$1:$G$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D14 D20 D40 D81 D87 D100 D113 D119 D139 D152 D158 D164 D191 D197 D203" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$K$1:$K$2</formula1>
+    <dataValidation sqref="D11 D17 D33 D64 D70 D81 D92 D98 D114 D125 D131 D137 D158 D164 D170" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$I$1:$I$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="D12 D18 D34 D65 D71 D82 D93 D99 D115 D126 D132 D138 D159 D165 D171" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$J$1:$J$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7636,7 +6765,7 @@
   <autoFilter ref="A1:D85"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C5 C7 C10 C13 C15 C18 C21 C24 C27 C30 C32 C34 C37 C39 C42 C44 C46 C49 C52 C54 C57 C59 C61 C63 C66 C69 C72 C74 C76 C78 C81 C84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$I$1:$I$5</formula1>
+      <formula1>_validation_data!$H$1:$H$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
+++ b/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$52</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,20 +461,15 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>MS1</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>microPOTS</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>microPOTS</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Profiling</t>
         </is>
@@ -508,20 +503,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MS3</t>
+          <t>month</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>nanoSPLITS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>nanoSPLITS</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
@@ -555,15 +545,10 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MS2</t>
+          <t>year</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>LESA</t>
         </is>
@@ -590,12 +575,12 @@
           <t>LA</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>microLESA</t>
         </is>
@@ -617,12 +602,12 @@
           <t>nanoDESI</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>minute</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>minute</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>nanoPOTS</t>
         </is>
@@ -644,7 +629,7 @@
           <t>MALDI</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
@@ -1183,7 +1168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1406,14 +1391,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
@@ -1429,7 +1410,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1443,19 +1424,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
@@ -1467,10 +1448,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
@@ -1486,12 +1471,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1509,14 +1494,10 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
@@ -1532,14 +1513,10 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -1550,38 +1527,46 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
@@ -1593,12 +1578,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1616,12 +1601,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1639,12 +1624,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1657,46 +1642,46 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
@@ -1708,12 +1693,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1731,12 +1716,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1754,12 +1739,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1772,46 +1757,42 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
@@ -1823,10 +1804,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
@@ -1842,14 +1827,10 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
@@ -1865,14 +1846,10 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
@@ -1883,61 +1860,69 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
@@ -1949,12 +1934,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1972,12 +1957,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1990,69 +1975,69 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
@@ -2064,12 +2049,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2087,12 +2072,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2105,69 +2090,69 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2164,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2202,12 +2187,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2220,69 +2205,69 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2279,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -2317,12 +2302,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2335,69 +2320,69 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2394,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2432,12 +2417,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2450,69 +2435,65 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2505,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2543,14 +2524,10 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
@@ -2561,84 +2538,84 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2627,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2664,1124 +2641,1116 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3797,14 +3766,14 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3820,125 +3789,117 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3950,14 +3911,14 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3969,159 +3930,175 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4137,14 +4114,14 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4160,1053 +4137,713 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HBM829.WPMT.279</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HBM848.ZBMT.962</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HBM848.ZBMT.962</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HBM848.ZBMT.962</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HBM848.ZBMT.962</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HBM848.ZBMT.962</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HBM848.ZBMT.962</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HBM863.ZHZF.274</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HBM863.ZHZF.274</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HBM863.ZHZF.274</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HBM863.ZHZF.274</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HBM863.ZHZF.274</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HBM863.ZHZF.274</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HBM935.LPGG.796</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E181"/>
-  <dataValidations count="9">
-    <dataValidation sqref="D2 D19 D24 D35 D40 D45 D50 D55 D72 D83 D100 D105 D116 D139 D144 D149 D172 D177" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E166"/>
+  <dataValidations count="8">
+    <dataValidation sqref="D2 D17 D22 D32 D37 D42 D47 D52 D67 D77 D92 D97 D107 D127 D132 D137 D157 D162" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$77</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D20 D25 D36 D41 D46 D51 D56 D73 D84 D101 D106 D117 D140 D145 D150 D173 D178" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D18 D23 D33 D38 D43 D48 D53 D68 D78 D93 D98 D108 D128 D133 D138 D158 D163" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$4</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D8 D14 D21 D26 D30 D37 D42 D47 D52 D57 D61 D67 D74 D78 D85 D89 D95 D102 D107 D111 D118 D122 D128 D134 D141 D146 D151 D155 D161 D167 D174 D179" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D8 D13 D19 D24 D28 D34 D39 D44 D49 D54 D58 D63 D69 D73 D79 D83 D88 D94 D99 D103 D109 D113 D118 D123 D129 D134 D139 D143 D148 D153 D159 D164" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$1</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D9 D15 D22 D27 D31 D38 D43 D48 D53 D58 D62 D68 D75 D79 D86 D90 D96 D103 D108 D112 D119 D123 D129 D135 D142 D147 D152 D156 D162 D168 D175 D180" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D5 D9 D14 D20 D25 D29 D35 D40 D45 D50 D55 D59 D64 D70 D74 D80 D84 D89 D95 D100 D104 D110 D114 D119 D124 D130 D135 D140 D144 D149 D154 D160 D165" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$E$1:$E$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D23 D28 D39 D44 D49 D54 D59 D76 D87 D104 D109 D120 D143 D148 D153 D176 D181" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D6 D21 D26 D36 D41 D46 D51 D56 D71 D81 D96 D101 D111 D131 D136 D141 D161 D166" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$F$1:$F$11</formula1>
     </dataValidation>
-    <dataValidation sqref="D7 D13 D29 D60 D66 D77 D88 D94 D110 D121 D127 D133 D154 D160 D166" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D7 D12 D27 D57 D62 D72 D82 D87 D102 D112 D117 D122 D142 D147 D152" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D10 D16 D32 D63 D69 D80 D91 D97 D113 D124 D130 D136 D157 D163 D169" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$3</formula1>
+    <dataValidation sqref="D10 D15 D30 D60 D65 D75 D85 D90 D105 D115 D120 D125 D145 D150 D155" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$H$1:$H$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D11 D17 D33 D64 D70 D81 D92 D98 D114 D125 D131 D137 D158 D164 D170" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$I$1:$I$6</formula1>
-    </dataValidation>
-    <dataValidation sqref="D12 D18 D34 D65 D71 D82 D93 D99 D115 D126 D132 D138 D159 D165 D171" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$J$1:$J$2</formula1>
+    <dataValidation sqref="D11 D16 D31 D61 D66 D76 D86 D91 D106 D116 D121 D126 D146 D151 D156" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$I$1:$I$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6765,7 +6402,7 @@
   <autoFilter ref="A1:D85"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C5 C7 C10 C13 C15 C18 C21 C24 C27 C30 C32 C34 C37 C39 C42 C44 C46 C49 C52 C54 C57 C59 C61 C63 C66 C69 C72 C74 C76 C78 C81 C84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$H$1:$H$5</formula1>
+      <formula1>_validation_data!$G$1:$G$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
+++ b/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$133</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$52</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,25 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>celsius</t>
+          <t>Negative ion mode</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Negative ion mode</t>
+          <t>LDI</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>LDI</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>microPOTS</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>microPOTS</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>Profiling</t>
         </is>
@@ -491,27 +486,27 @@
           <t>TWIMS</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Positive ion mode</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Positive ion mode</t>
+          <t>SIMS-H20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SIMS-H20</t>
+          <t>month</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>nanoSPLITS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>nanoSPLITS</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
@@ -533,22 +528,22 @@
           <t>DTIMS</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Negative and positive ion mode</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Negative and positive ion mode</t>
+          <t>HESI</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HESI</t>
+          <t>year</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>LESA</t>
         </is>
@@ -570,17 +565,17 @@
           <t>SLIM</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>day</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>microLESA</t>
         </is>
@@ -597,17 +592,17 @@
           <t>TIMS</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nanoDESI</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>nanoDESI</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>minute</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>nanoPOTS</t>
         </is>
@@ -624,12 +619,12 @@
           <t>FAIMS</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>MALDI</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
@@ -641,7 +636,7 @@
           <t>EVOS M7000</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>DESI</t>
         </is>
@@ -653,7 +648,7 @@
           <t>NovaSeq X</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>SIMS-C60</t>
         </is>
@@ -665,7 +660,7 @@
           <t>NanoZoomer 2.0-HT</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>ESI</t>
         </is>
@@ -677,7 +672,7 @@
           <t>timsTOF Ultra 2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>MALDI-2</t>
         </is>
@@ -689,7 +684,7 @@
           <t>Lightsheet 7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>nESI</t>
         </is>
@@ -1168,7 +1163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,12 +1252,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1280,12 +1275,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -1298,23 +1293,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM234.FFHQ.425</t>
+          <t>HBM235.KWRX.762</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.FFHQ.425</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
         </is>
       </c>
     </row>
@@ -1326,10 +1317,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
@@ -1345,14 +1340,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
@@ -1368,14 +1359,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
@@ -1386,38 +1373,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1420,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1448,14 +1439,10 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
@@ -1466,61 +1453,69 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
@@ -1532,12 +1527,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1550,53 +1545,53 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1612,14 +1607,14 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1635,416 +1630,416 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2060,14 +2055,14 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2083,14 +2078,14 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2106,14 +2101,14 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2129,355 +2124,331 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2493,14 +2464,14 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2512,14 +2483,14 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2531,56 +2502,60 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2596,339 +2571,335 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2944,14 +2915,14 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2967,14 +2938,14 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2986,270 +2957,266 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3265,194 +3232,178 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3468,312 +3419,320 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>ms_ionization_technique</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NanoSpray</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3789,14 +3748,14 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3808,14 +3767,14 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3827,14 +3786,14 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3846,1004 +3805,278 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM776.ZDWT.399</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HBM787.FMCW.347</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Orbitrap Fusion Tribrid</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HBM793.KFWG.238</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>ms_ionization_technique</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>NanoSpray</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>HBM793.KFWG.238</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>HBM793.KFWG.238</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>HBM793.KFWG.238</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E166"/>
-  <dataValidations count="8">
-    <dataValidation sqref="D2 D17 D22 D32 D37 D42 D47 D52 D67 D77 D92 D97 D107 D127 D132 D137 D157 D162" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E133"/>
+  <dataValidations count="7">
+    <dataValidation sqref="D2 D14 D18 D26 D30 D34 D38 D42 D54 D62 D74 D78 D86 D102 D106 D110 D126 D130" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$77</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D18 D23 D33 D38 D43 D48 D53 D68 D78 D93 D98 D108 D128 D133 D138 D158 D163" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D15 D19 D27 D31 D35 D39 D43 D55 D63 D75 D79 D87 D103 D107 D111 D127 D131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$4</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D8 D13 D19 D24 D28 D34 D39 D44 D49 D54 D58 D63 D69 D73 D79 D83 D88 D94 D99 D103 D109 D113 D118 D123 D129 D134 D139 D143 D148 D153 D159 D164" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$1</formula1>
+    <dataValidation sqref="D4 D7 D11 D16 D20 D23 D28 D32 D36 D40 D44 D47 D51 D56 D59 D64 D67 D71 D76 D80 D83 D88 D91 D95 D99 D104 D108 D112 D115 D119 D123 D128 D132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D9 D14 D20 D25 D29 D35 D40 D45 D50 D55 D59 D64 D70 D74 D80 D84 D89 D95 D100 D104 D110 D114 D119 D124 D130 D135 D140 D144 D149 D154 D160 D165" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$3</formula1>
+    <dataValidation sqref="D5 D17 D21 D29 D33 D37 D41 D45 D57 D65 D77 D81 D89 D105 D109 D113 D129 D133" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$11</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D21 D26 D36 D41 D46 D51 D56 D71 D81 D96 D101 D111 D131 D136 D141 D161 D166" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$11</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7 D12 D27 D57 D62 D72 D82 D87 D102 D112 D117 D122 D142 D147 D152" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D6 D10 D22 D46 D50 D58 D66 D70 D82 D90 D94 D98 D114 D118 D122" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D10 D15 D30 D60 D65 D75 D85 D90 D105 D115 D120 D125 D145 D150 D155" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$H$1:$H$6</formula1>
+    <dataValidation sqref="D8 D12 D24 D48 D52 D60 D68 D72 D84 D92 D96 D100 D116 D120 D124" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$G$1:$G$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D11 D16 D31 D61 D66 D76 D86 D91 D106 D116 D121 D126 D146 D151 D156" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$I$1:$I$2</formula1>
+    <dataValidation sqref="D9 D13 D25 D49 D53 D61 D69 D73 D85 D93 D97 D101 D117 D121 D125" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$H$1:$H$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6402,7 +5635,7 @@
   <autoFilter ref="A1:D85"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C5 C7 C10 C13 C15 C18 C21 C24 C27 C30 C32 C34 C37 C39 C42 C44 C46 C49 C52 C54 C57 C59 C61 C63 C66 C69 C72 C74 C76 C78 C81 C84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$5</formula1>
+      <formula1>_validation_data!$F$1:$F$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
+++ b/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$52</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,20 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Negative ion mode</t>
+          <t>In-House</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>LDI</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>microPOTS</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>microPOTS</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
         <is>
           <t>Profiling</t>
         </is>
@@ -488,25 +483,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Positive ion mode</t>
+          <t>IonOpticks</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SIMS-H20</t>
+          <t>month</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>nanoSPLITS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>nanoSPLITS</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
@@ -530,20 +520,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Negative and positive ion mode</t>
+          <t>Evosep</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HESI</t>
+          <t>year</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>LESA</t>
         </is>
@@ -565,17 +550,17 @@
           <t>SLIM</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thermo Fisher Scientific</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>day</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>microLESA</t>
         </is>
@@ -592,17 +577,17 @@
           <t>TIMS</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Agilent Technologies</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nanoDESI</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>minute</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>nanoPOTS</t>
         </is>
@@ -619,12 +604,12 @@
           <t>FAIMS</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MALDI</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Millipore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
@@ -636,9 +621,9 @@
           <t>EVOS M7000</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DESI</t>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Bruker</t>
         </is>
       </c>
     </row>
@@ -648,9 +633,9 @@
           <t>NovaSeq X</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SIMS-C60</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Waters</t>
         </is>
       </c>
     </row>
@@ -660,11 +645,6 @@
           <t>NanoZoomer 2.0-HT</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ESI</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -672,21 +652,11 @@
           <t>timsTOF Ultra 2</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MALDI-2</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
           <t>Lightsheet 7</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nESI</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,46 +1217,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HBM234.FFHQ.425</t>
+          <t>HBM235.KWRX.762</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.FFHQ.425</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HBM234.FFHQ.425</t>
+          <t>HBM235.KWRX.762</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.FFHQ.425</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1264,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1317,14 +1283,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
@@ -1335,38 +1297,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EvoSep</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1344,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1397,14 +1363,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
@@ -1415,45 +1377,53 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1469,14 +1439,14 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1492,232 +1462,232 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1733,14 +1703,14 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1756,244 +1726,220 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2009,14 +1955,14 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2032,152 +1978,140 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2189,37 +2123,37 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2231,14 +2165,14 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2250,14 +2184,14 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2269,37 +2203,37 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2311,14 +2245,14 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2330,14 +2264,14 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2353,14 +2287,14 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2376,60 +2310,60 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2441,37 +2375,37 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2483,14 +2417,14 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2502,14 +2436,14 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2525,14 +2459,14 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2548,312 +2482,300 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>EvoSep</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>EvoSep</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2869,14 +2791,14 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2892,60 +2814,60 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NanoSpray</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2957,37 +2879,37 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2999,14 +2921,14 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3018,106 +2940,94 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3129,37 +3039,37 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>EvoSep</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3171,14 +3081,14 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3190,893 +3100,122 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>data_collection_mode</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>DIa</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>data_collection_mode</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>DIa</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>HBM776.ZDWT.399</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>HBM776.ZDWT.399</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>HBM776.ZDWT.399</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>HBM776.ZDWT.399</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>HBM787.FMCW.347</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>HBM787.FMCW.347</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>HBM787.FMCW.347</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>HBM787.FMCW.347</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>HBM793.KFWG.238</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>HBM793.KFWG.238</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>HBM793.KFWG.238</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>HBM793.KFWG.238</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>ms_ionization_technique</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>NanoSpray</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E133"/>
-  <dataValidations count="7">
-    <dataValidation sqref="D2 D14 D18 D26 D30 D34 D38 D42 D54 D62 D74 D78 D86 D102 D106 D110 D126 D130" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E97"/>
+  <dataValidations count="6">
+    <dataValidation sqref="D2 D12 D14 D20 D22 D24 D26 D28 D38 D44 D54 D56 D62 D76 D78 D80 D94 D96" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$77</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D15 D19 D27 D31 D35 D39 D43 D55 D63 D75 D79 D87 D103 D107 D111 D127 D131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D13 D15 D21 D23 D25 D27 D29 D39 D45 D55 D57 D63 D77 D79 D81 D95 D97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$4</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D7 D11 D16 D20 D23 D28 D32 D36 D40 D44 D47 D51 D56 D59 D64 D67 D71 D76 D80 D83 D88 D91 D95 D99 D104 D108 D112 D115 D119 D123 D128 D132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="D5 D17 D21 D29 D33 D37 D41 D45 D57 D65 D77 D81 D89 D105 D109 D113 D129 D133" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$11</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6 D10 D22 D46 D50 D58 D66 D70 D82 D90 D94 D98 D114 D118 D122" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D8 D16 D30 D34 D40 D46 D50 D58 D64 D68 D72 D82 D86 D90" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D8 D12 D24 D48 D52 D60 D68 D72 D84 D92 D96 D100 D116 D120 D124" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$6</formula1>
+    <dataValidation sqref="D5 D9 D17 D31 D35 D41 D47 D51 D59 D65 D69 D73 D83 D87 D91" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$8</formula1>
     </dataValidation>
-    <dataValidation sqref="D9 D13 D25 D49 D53 D61 D69 D73 D85 D93 D97 D101 D117 D121 D125" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$H$1:$H$2</formula1>
+    <dataValidation sqref="D6 D10 D18 D32 D36 D42 D48 D52 D60 D66 D70 D74 D84 D88 D92" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$F$1:$F$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="D7 D11 D19 D33 D37 D43 D49 D53 D61 D67 D71 D75 D85 D89 D93" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$G$1:$G$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5635,7 +4774,7 @@
   <autoFilter ref="A1:D85"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C5 C7 C10 C13 C15 C18 C21 C24 C27 C30 C32 C34 C37 C39 C42 C44 C46 C49 C52 C54 C57 C59 C61 C63 C66 C69 C72 C74 C76 C78 C81 C84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$5</formula1>
+      <formula1>_validation_data!$E$1:$E$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
+++ b/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$52</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>DDA</t>
+          <t>cIMS</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>cIMS</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>In-House</t>
+          <t>microPOTS</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>hour</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>microPOTS</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>Profiling</t>
         </is>
@@ -473,30 +463,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRM</t>
+          <t>TWIMS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TWIMS</t>
+          <t>month</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IonOpticks</t>
+          <t>nanoSPLITS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nanoSPLITS</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
@@ -510,25 +490,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>DTIMS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DTIMS</t>
+          <t>year</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>Evosep</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>LESA</t>
         </is>
@@ -542,25 +512,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SRM</t>
+          <t>SLIM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SLIM</t>
+          <t>day</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>microLESA</t>
         </is>
@@ -572,22 +532,17 @@
           <t>Not applicable</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TIMS</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TIMS</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>Agilent Technologies</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>minute</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>nanoPOTS</t>
         </is>
@@ -599,17 +554,12 @@
           <t>MoticEasyScan One</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>FAIMS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>Millipore</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
@@ -621,21 +571,11 @@
           <t>EVOS M7000</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Bruker</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
           <t>NovaSeq X</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Waters</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1194,23 +1134,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HBM234.FFHQ.425</t>
+          <t>HBM235.KWRX.762</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.FFHQ.425</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1158,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -1241,14 +1177,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EvoSep</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -1259,38 +1191,38 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1234,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1316,114 +1248,110 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM264.LNQW.373</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EvoSep</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM276.ZMTV.784</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM344.HKXT.423</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1439,347 +1367,323 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM348.TLKL.662</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM355.VDXT.245</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM435.MKRV.485</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EvoSep</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM449.SKWJ.362</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM569.KMPP.778</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM668.JLFW.397</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1791,1431 +1695,702 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>EvoSep</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>EvoSep</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM695.BJZM.557</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM726.VXBQ.393</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM748.GPDM.692</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EvoSep</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>EvoSep</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM787.FMCW.347</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EvoSep</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM793.KFWG.238</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM829.WPMT.279</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>EvoSep</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM938.FRHG.524</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>data_collection_mode</t>
+          <t>acquisition_instrument_model</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIa</t>
+          <t>Orbitrap Fusion Tribrid</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM952.RNFS.983</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Tribrid</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HBM754.SZQQ.629</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>EvoSep</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>HBM754.SZQQ.629</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>HBM754.SZQQ.629</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>HBM765.XFHR.246</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>HBM765.XFHR.246</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>EvoSep</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>HBM765.XFHR.246</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>HBM765.XFHR.246</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>HBM776.ZDWT.399</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>HBM776.ZDWT.399</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>EvoSep</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>HBM776.ZDWT.399</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>HBM776.ZDWT.399</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>HBM787.FMCW.347</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>HBM787.FMCW.347</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>HBM793.KFWG.238</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>HBM793.KFWG.238</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>EvoSep</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>EvoSep</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>EvoSep</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>data_collection_mode</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>DIa</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E97"/>
-  <dataValidations count="6">
-    <dataValidation sqref="D2 D12 D14 D20 D22 D24 D26 D28 D38 D44 D54 D56 D62 D76 D78 D80 D94 D96" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E64"/>
+  <dataValidations count="4">
+    <dataValidation sqref="D2 D9 D10 D14 D15 D16 D17 D18 D25 D29 D36 D37 D41 D51 D52 D53 D63 D64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$77</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D13 D15 D21 D23 D25 D27 D29 D39 D45 D55 D57 D63 D77 D79 D81 D95 D97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$4</formula1>
+    <dataValidation sqref="D3 D6 D11 D19 D22 D26 D30 D33 D38 D42 D45 D48 D54 D57 D60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D8 D16 D30 D34 D40 D46 D50 D58 D64 D68 D72 D82 D86 D90" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$6</formula1>
+    <dataValidation sqref="D4 D7 D12 D20 D23 D27 D31 D34 D39 D43 D46 D49 D55 D58 D61" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D9 D17 D31 D35 D41 D47 D51 D59 D65 D69 D73 D83 D87 D91" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$8</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6 D10 D18 D32 D36 D42 D48 D52 D60 D66 D70 D74 D84 D88 D92" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$6</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7 D11 D19 D33 D37 D43 D49 D53 D61 D67 D71 D75 D85 D89 D93" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$2</formula1>
+    <dataValidation sqref="D5 D8 D13 D21 D24 D28 D32 D35 D40 D44 D47 D50 D56 D59 D62" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4774,7 +3949,7 @@
   <autoFilter ref="A1:D85"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C5 C7 C10 C13 C15 C18 C21 C24 C27 C30 C32 C34 C37 C39 C42 C44 C46 C49 C52 C54 C57 C59 C61 C63 C66 C69 C72 C74 C76 C78 C81 C84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$5</formula1>
+      <formula1>_validation_data!$C$1:$C$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
+++ b/metadata/lcms/todo/Vanderbilt TMC (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$52</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,25 +431,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SCN400</t>
+          <t>cIMS</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>cIMS</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>microPOTS</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>microPOTS</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>Profiling</t>
         </is>
@@ -458,25 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STELLARIS 5</t>
+          <t>TWIMS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TWIMS</t>
+          <t>month</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>nanoSPLITS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>nanoSPLITS</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
@@ -485,20 +475,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BZ-X710</t>
+          <t>DTIMS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DTIMS</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>LESA</t>
         </is>
@@ -507,20 +492,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pannoramic MIDI II Digital Scanner</t>
+          <t>SLIM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SLIM</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>microLESA</t>
         </is>
@@ -529,20 +509,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>TIMS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIMS</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>minute</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>nanoPOTS</t>
         </is>
@@ -551,514 +526,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MoticEasyScan One</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>FAIMS</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>LCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EVOS M7000</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NovaSeq X</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NanoZoomer 2.0-HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lightsheet 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DNBSEQ-T7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>timsTOF Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AVITI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>timsTOF Pro 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Q Exactive UHMR</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Q Exactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>timsTOF SCP</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Zyla 4.2 sCMOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Helios</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>uScopeHXII-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Custom: Multiphoton</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>QTRAP 5500</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BZ-X800</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>CyTOF 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>G4X Spatial Sequencer</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>NextSeq 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Hyperion Imaging System</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>NovaSeq X Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CyTOF XT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>NanoZoomer-SQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>NextSeq 550</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Axio Zoom.V16</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Digital Spatial Profiler</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>timsTOF FleX</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>timsTOF FleX MALDI-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>NanoZoomer S210</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BZ-X810</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Axio Observer 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Cytek Northern Lights</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>IN Cell Analyzer 2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>timsTOF HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PhenoImager Fusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>DM6 B</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Aperio CS2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Lumos Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Resolve Biosciences Molecular Cartography</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MALDI timsTOF Flex Prototype</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>TissueScope LE Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>VS200 Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Axio Observer 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Axio Observer 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HiSeq 2500</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Orbitrap Eclipse Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Cell DIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MERSCOPE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>NextSeq 2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>NovaSeq 6000</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HiSeq 4000</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>solariX</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Panoramic 150 Digital Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Aperio AT2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MIBIscope</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Biomark HD</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>CosMx Spatial Molecular Imager</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MERSCOPE Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Axio Scan.Z1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Juno System</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Q Exactive HF</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Xenium Analyzer</t>
         </is>
       </c>
     </row>
@@ -1073,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,23 +584,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HBM234.FFHQ.425</t>
+          <t>HBM235.KWRX.762</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM234.FFHQ.425</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
         </is>
       </c>
     </row>
@@ -1139,7 +608,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -1158,7 +627,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -1172,19 +641,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HBM235.KWRX.762</t>
+          <t>HBM237.TZFG.599</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM235.KWRX.762</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
         </is>
       </c>
     </row>
@@ -1196,7 +665,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1215,7 +684,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1229,72 +698,64 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM237.TZFG.599</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM237.TZFG.599</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM264.LNQW.373</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM264.LNQW.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM276.ZMTV.784</t>
+          <t>HBM278.QSHT.258</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM276.ZMTV.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1306,14 +767,14 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1325,14 +786,14 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM278.QSHT.258</t>
+          <t>HBM462.PQHM.967</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1344,266 +805,242 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM278.QSHT.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM344.HKXT.423</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM344.HKXT.423</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM348.TLKL.662</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TLKL.662</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM355.VDXT.245</t>
+          <t>HBM476.FLFT.375</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM355.VDXT.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM435.MKRV.485</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM435.MKRV.485</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM449.SKWJ.362</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM449.SKWJ.362</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM584.XGQT.447</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM462.PQHM.967</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM462.PQHM.967</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM668.QZWH.548</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM476.FLFT.375</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM476.FLFT.375</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM569.KMPP.778</t>
+          <t>HBM689.LCZJ.635</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM569.KMPP.778</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1615,14 +1052,14 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1634,14 +1071,14 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM584.XGQT.447</t>
+          <t>HBM727.FSLG.823</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1653,197 +1090,185 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.XGQT.447</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM668.JLFW.397</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.JLFW.397</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM754.SZQQ.629</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM668.QZWH.548</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM668.QZWH.548</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM765.XFHR.246</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM689.LCZJ.635</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM689.LCZJ.635</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM695.BJZM.557</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM695.BJZM.557</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM726.VXBQ.393</t>
+          <t>HBM776.ZDWT.399</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM726.VXBQ.393</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1855,14 +1280,14 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1874,14 +1299,14 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM727.FSLG.823</t>
+          <t>HBM848.ZBMT.962</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1893,504 +1318,135 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.FSLG.823</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM748.GPDM.692</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM748.GPDM.692</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM863.ZHZF.274</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM754.SZQQ.629</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM754.SZQQ.629</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM765.XFHR.246</t>
+          <t>HBM935.LPGG.796</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>HBM765.XFHR.246</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM765.XFHR.246</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>HBM776.ZDWT.399</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>HBM776.ZDWT.399</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>HBM776.ZDWT.399</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM776.ZDWT.399</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>HBM787.FMCW.347</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.FMCW.347</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>HBM793.KFWG.238</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.KFWG.238</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>HBM829.WPMT.279</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.WPMT.279</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>HBM848.ZBMT.962</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM848.ZBMT.962</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>HBM863.ZHZF.274</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM863.ZHZF.274</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>HBM935.LPGG.796</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM935.LPGG.796</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>HBM938.FRHG.524</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.FRHG.524</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>HBM952.RNFS.983</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Tribrid</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM952.RNFS.983</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E64"/>
-  <dataValidations count="4">
-    <dataValidation sqref="D2 D9 D10 D14 D15 D16 D17 D18 D25 D29 D36 D37 D41 D51 D52 D53 D63 D64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$77</formula1>
+  <autoFilter ref="A1:E46"/>
+  <dataValidations count="3">
+    <dataValidation sqref="D2 D5 D8 D11 D14 D17 D20 D23 D26 D29 D32 D35 D38 D41 D44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D6 D11 D19 D22 D26 D30 D33 D38 D42 D45 D48 D54 D57 D60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$6</formula1>
+    <dataValidation sqref="D3 D6 D9 D12 D15 D18 D21 D24 D27 D30 D33 D36 D39 D42 D45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$C$1:$C$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D7 D12 D20 D23 D27 D31 D34 D39 D43 D46 D49 D55 D58 D61" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$6</formula1>
-    </dataValidation>
-    <dataValidation sqref="D5 D8 D13 D21 D24 D28 D32 D35 D40 D44 D47 D50 D56 D59 D62" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$2</formula1>
+    <dataValidation sqref="D4 D7 D10 D13 D16 D19 D22 D25 D28 D31 D34 D37 D40 D43 D46" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3949,7 +3005,7 @@
   <autoFilter ref="A1:D85"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C5 C7 C10 C13 C15 C18 C21 C24 C27 C30 C32 C34 C37 C39 C42 C44 C46 C49 C52 C54 C57 C59 C61 C63 C66 C69 C72 C74 C76 C78 C81 C84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$5</formula1>
+      <formula1>_validation_data!$B$1:$B$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
